--- a/fixture/src/main/java/domainapp/fixture/scenarios/spreadsheets/IngredientImport.xlsx
+++ b/fixture/src/main/java/domainapp/fixture/scenarios/spreadsheets/IngredientImport.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="17">
   <si>
     <t>Meat</t>
   </si>
@@ -52,6 +52,21 @@
   </si>
   <si>
     <t>Category</t>
+  </si>
+  <si>
+    <t>Supplier</t>
+  </si>
+  <si>
+    <t>Jones the Butcher</t>
+  </si>
+  <si>
+    <t>A.W.Cobert and Son</t>
+  </si>
+  <si>
+    <t>Mary's Corner Shop</t>
+  </si>
+  <si>
+    <t>Fish-r-us</t>
   </si>
 </sst>
 </file>
@@ -399,11 +414,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,6 +430,9 @@
       <c r="B1" t="s">
         <v>11</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -422,7 +441,9 @@
       <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -431,7 +452,9 @@
       <c r="B3" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -440,6 +463,9 @@
       <c r="B4" t="s">
         <v>0</v>
       </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
@@ -448,6 +474,9 @@
       <c r="B5" t="s">
         <v>0</v>
       </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
@@ -456,6 +485,9 @@
       <c r="B6" t="s">
         <v>0</v>
       </c>
+      <c r="C6" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -464,6 +496,9 @@
       <c r="B7" t="s">
         <v>0</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
@@ -472,6 +507,9 @@
       <c r="B8" t="s">
         <v>1</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -479,6 +517,9 @@
       </c>
       <c r="B9" t="s">
         <v>1</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/fixture/src/main/java/domainapp/fixture/scenarios/spreadsheets/IngredientImport.xlsx
+++ b/fixture/src/main/java/domainapp/fixture/scenarios/spreadsheets/IngredientImport.xlsx
@@ -414,13 +414,13 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5:A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
